--- a/data/case1/14/Qlm2_5.xlsx
+++ b/data/case1/14/Qlm2_5.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.25652791214032078</v>
+        <v>-0.21888754210301897</v>
       </c>
       <c r="B1" s="0">
-        <v>0.25606304259279966</v>
+        <v>0.21854790196423579</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.17055114558024176</v>
+        <v>-0.16010721563938191</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16948879833764163</v>
+        <v>0.1592078006129638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.11977603619614996</v>
+        <v>-0.10949479055234868</v>
       </c>
       <c r="B3" s="0">
-        <v>0.1195086926518858</v>
+        <v>0.10929005038771855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.11150869277253506</v>
+        <v>-0.10129005042773187</v>
       </c>
       <c r="B4" s="0">
-        <v>0.11106512472887076</v>
+        <v>0.10093811789773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.10806512480202102</v>
+        <v>-0.09793811792061824</v>
       </c>
       <c r="B5" s="0">
-        <v>0.10655500357942138</v>
+        <v>0.096752962713377855</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0072981859150189621</v>
+        <v>0.020391242916996788</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0072204412033141097</v>
+        <v>-0.020408263044826569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0027795586226773139</v>
+        <v>0.03040826298832755</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0027872915740276838</v>
+        <v>-0.030427499125466717</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.012787291400311762</v>
+        <v>0.040427499070240902</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.012795432950530206</v>
+        <v>-0.040578099862036865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.014795432869159075</v>
+        <v>0.042578099840962835</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.014806327721769819</v>
+        <v>-0.042760727704305612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.016806327643189789</v>
+        <v>0.044760727686130153</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.01680592295179828</v>
+        <v>-0.044778949085250375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.011349764718626254</v>
+        <v>0.047778949063494558</v>
       </c>
       <c r="B11" s="0">
-        <v>0.011341769501429511</v>
+        <v>-0.047820984054798288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0078417695974155599</v>
+        <v>0.0015796002979264756</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0077860930945616857</v>
+        <v>-0.0015872562660237399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0042860931928832002</v>
+        <v>0.0050872562435131385</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0042675930656077554</v>
+        <v>-0.0050888747300659176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0037324067849437981</v>
+        <v>0.013088874690034835</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0037340465254320776</v>
+        <v>-0.013096504527539743</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0047340464551162142</v>
+        <v>-0.0080501448628291783</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0047344956968347063</v>
+        <v>0.0080326019997514209</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0067344956157233682</v>
+        <v>-0.0060326020161709515</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.006742354153258745</v>
+        <v>0.0060033757636928087</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.024461691326719048</v>
+        <v>-0.004003375780583518</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.024543207398492584</v>
+        <v>0.0039999999751332282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.079511897084181271</v>
+        <v>-0.052440686349385146</v>
       </c>
       <c r="B18" s="0">
-        <v>0.079351850240282573</v>
+        <v>0.052361413222051567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.075351850291077049</v>
+        <v>-0.048361413239158324</v>
       </c>
       <c r="B19" s="0">
-        <v>0.074119910899215657</v>
+        <v>0.04779846361051332</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.070119910974815625</v>
+        <v>-0.0080172130206950243</v>
       </c>
       <c r="B20" s="0">
-        <v>0.069753805080706499</v>
+        <v>0.0080057731311864444</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.065753805162276358</v>
+        <v>-0.0040057731533176266</v>
       </c>
       <c r="B21" s="0">
-        <v>0.065153393897973366</v>
+        <v>0.0039999999777320383</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045712762208829361</v>
+        <v>-0.045713010082430117</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045499721736064203</v>
+        <v>0.045499310304441209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040499721818807899</v>
+        <v>-0.040499310331493454</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040098982423128149</v>
+        <v>0.040099122960925548</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020098982681726163</v>
+        <v>-0.02009912304919137</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999737954965</v>
+        <v>0.019999999910611521</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097256817747862101</v>
+        <v>-0.11514420565563732</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097133537696272754</v>
+        <v>0.1149588233893617</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094633537787940369</v>
+        <v>-0.11245882341803259</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094473537546146957</v>
+        <v>0.1122170905832558</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.09197353764361571</v>
+        <v>-0.091966553908140902</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091016803773257937</v>
+        <v>0.091014955146782928</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089016803889988338</v>
+        <v>-0.089014955183665201</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088362023097031894</v>
+        <v>0.08836338976826319</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081362023287912422</v>
+        <v>-0.081363389830611865</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081172838329896635</v>
+        <v>0.081174361785157245</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021172839127005627</v>
+        <v>-0.021174362058645535</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021021986263665582</v>
+        <v>0.021024094949874783</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014021986469320069</v>
+        <v>-0.014024095016962335</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000745273671455</v>
+        <v>0.014001218381114455</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040007455140713688</v>
+        <v>-0.0040012184602851164</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999998270570103</v>
+        <v>0.0039999999443285361</v>
       </c>
     </row>
   </sheetData>
